--- a/LTA/Uploads/Excels/KhachHang.xlsx
+++ b/LTA/Uploads/Excels/KhachHang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FB9E1-FC10-4588-AF53-44C051E07304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC8E741-2414-4BAA-BF2B-E15CF554F552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9BB37FC-605F-4610-B2AF-30139069B2DA}"/>
   </bookViews>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nguyen N</t>
   </si>
   <si>
-    <t>Tran M</t>
+    <t>104</t>
   </si>
 </sst>
 </file>
@@ -404,11 +398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245093FF-29E8-4A86-B478-66657C39EE58}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -417,18 +409,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
